--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Serpine1-Lrp1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Serpine1-Lrp1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.9204425721844</v>
+        <v>4.279621666666666</v>
       </c>
       <c r="H2">
-        <v>2.9204425721844</v>
+        <v>12.838865</v>
       </c>
       <c r="I2">
-        <v>0.05684391333603486</v>
+        <v>0.07738101347700441</v>
       </c>
       <c r="J2">
-        <v>0.05684391333603486</v>
+        <v>0.07738101347700439</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.979663021146081</v>
+        <v>17.16653</v>
       </c>
       <c r="N2">
-        <v>9.979663021146081</v>
+        <v>51.49959</v>
       </c>
       <c r="O2">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="P2">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="Q2">
-        <v>29.1450327430094</v>
+        <v>73.46625372948333</v>
       </c>
       <c r="R2">
-        <v>29.1450327430094</v>
+        <v>661.1962835653499</v>
       </c>
       <c r="S2">
-        <v>0.001905287007922441</v>
+        <v>0.004336009472696074</v>
       </c>
       <c r="T2">
-        <v>0.001905287007922441</v>
+        <v>0.004336009472696073</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.9204425721844</v>
+        <v>4.279621666666666</v>
       </c>
       <c r="H3">
-        <v>2.9204425721844</v>
+        <v>12.838865</v>
       </c>
       <c r="I3">
-        <v>0.05684391333603486</v>
+        <v>0.07738101347700441</v>
       </c>
       <c r="J3">
-        <v>0.05684391333603486</v>
+        <v>0.07738101347700439</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>255.664805713016</v>
+        <v>256.4443053333333</v>
       </c>
       <c r="N3">
-        <v>255.664805713016</v>
+        <v>769.332916</v>
       </c>
       <c r="O3">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="P3">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="Q3">
-        <v>746.6543828135452</v>
+        <v>1097.484605397815</v>
       </c>
       <c r="R3">
-        <v>746.6543828135452</v>
+        <v>9877.361448580337</v>
       </c>
       <c r="S3">
-        <v>0.04881074958902604</v>
+        <v>0.0647740071606957</v>
       </c>
       <c r="T3">
-        <v>0.04881074958902604</v>
+        <v>0.06477400716069569</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.9204425721844</v>
+        <v>4.279621666666666</v>
       </c>
       <c r="H4">
-        <v>2.9204425721844</v>
+        <v>12.838865</v>
       </c>
       <c r="I4">
-        <v>0.05684391333603486</v>
+        <v>0.07738101347700441</v>
       </c>
       <c r="J4">
-        <v>0.05684391333603486</v>
+        <v>0.07738101347700439</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.0970775725202</v>
+        <v>32.74538866666666</v>
       </c>
       <c r="N4">
-        <v>32.0970775725202</v>
+        <v>98.236166</v>
       </c>
       <c r="O4">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="P4">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="Q4">
-        <v>93.73767178549311</v>
+        <v>140.1378748212878</v>
       </c>
       <c r="R4">
-        <v>93.73767178549311</v>
+        <v>1261.24087339159</v>
       </c>
       <c r="S4">
-        <v>0.006127876739086372</v>
+        <v>0.00827099684361262</v>
       </c>
       <c r="T4">
-        <v>0.006127876739086372</v>
+        <v>0.008270996843612618</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.7239414266365</v>
+        <v>24.807588</v>
       </c>
       <c r="H5">
-        <v>24.7239414266365</v>
+        <v>74.422764</v>
       </c>
       <c r="I5">
-        <v>0.4812303440466996</v>
+        <v>0.4485528046349828</v>
       </c>
       <c r="J5">
-        <v>0.4812303440466996</v>
+        <v>0.4485528046349828</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.979663021146081</v>
+        <v>17.16653</v>
       </c>
       <c r="N5">
-        <v>9.979663021146081</v>
+        <v>51.49959</v>
       </c>
       <c r="O5">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="P5">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="Q5">
-        <v>246.736603992386</v>
+        <v>425.86020362964</v>
       </c>
       <c r="R5">
-        <v>246.736603992386</v>
+        <v>3832.74183266676</v>
       </c>
       <c r="S5">
-        <v>0.01612981704672658</v>
+        <v>0.02513444994461928</v>
       </c>
       <c r="T5">
-        <v>0.01612981704672658</v>
+        <v>0.02513444994461928</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.7239414266365</v>
+        <v>24.807588</v>
       </c>
       <c r="H6">
-        <v>24.7239414266365</v>
+        <v>74.422764</v>
       </c>
       <c r="I6">
-        <v>0.4812303440466996</v>
+        <v>0.4485528046349828</v>
       </c>
       <c r="J6">
-        <v>0.4812303440466996</v>
+        <v>0.4485528046349828</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>255.664805713016</v>
+        <v>256.4443053333333</v>
       </c>
       <c r="N6">
-        <v>255.664805713016</v>
+        <v>769.332916</v>
       </c>
       <c r="O6">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="P6">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="Q6">
-        <v>6321.041681301008</v>
+        <v>6361.764671655535</v>
       </c>
       <c r="R6">
-        <v>6321.041681301008</v>
+        <v>57255.88204489982</v>
       </c>
       <c r="S6">
-        <v>0.4132230249357915</v>
+        <v>0.3754740507244813</v>
       </c>
       <c r="T6">
-        <v>0.4132230249357915</v>
+        <v>0.3754740507244813</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>24.7239414266365</v>
+        <v>24.807588</v>
       </c>
       <c r="H7">
-        <v>24.7239414266365</v>
+        <v>74.422764</v>
       </c>
       <c r="I7">
-        <v>0.4812303440466996</v>
+        <v>0.4485528046349828</v>
       </c>
       <c r="J7">
-        <v>0.4812303440466996</v>
+        <v>0.4485528046349828</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.0970775725202</v>
+        <v>32.74538866666666</v>
       </c>
       <c r="N7">
-        <v>32.0970775725202</v>
+        <v>98.236166</v>
       </c>
       <c r="O7">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="P7">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="Q7">
-        <v>793.5662658691974</v>
+        <v>812.3341109425359</v>
       </c>
       <c r="R7">
-        <v>793.5662658691974</v>
+        <v>7311.006998482824</v>
       </c>
       <c r="S7">
-        <v>0.0518775020641815</v>
+        <v>0.04794430396588226</v>
       </c>
       <c r="T7">
-        <v>0.0518775020641815</v>
+        <v>0.04794430396588226</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>23.7321381438419</v>
+        <v>26.21862666666667</v>
       </c>
       <c r="H8">
-        <v>23.7321381438419</v>
+        <v>78.65588</v>
       </c>
       <c r="I8">
-        <v>0.4619257426172655</v>
+        <v>0.4740661818880128</v>
       </c>
       <c r="J8">
-        <v>0.4619257426172655</v>
+        <v>0.4740661818880128</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.979663021146081</v>
+        <v>17.16653</v>
       </c>
       <c r="N8">
-        <v>9.979663021146081</v>
+        <v>51.49959</v>
       </c>
       <c r="O8">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="P8">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="Q8">
-        <v>236.8387414468294</v>
+        <v>450.0828412321333</v>
       </c>
       <c r="R8">
-        <v>236.8387414468294</v>
+        <v>4050.7455710892</v>
       </c>
       <c r="S8">
-        <v>0.01548276788810883</v>
+        <v>0.02656408029551255</v>
       </c>
       <c r="T8">
-        <v>0.01548276788810883</v>
+        <v>0.02656408029551255</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>23.7321381438419</v>
+        <v>26.21862666666667</v>
       </c>
       <c r="H9">
-        <v>23.7321381438419</v>
+        <v>78.65588</v>
       </c>
       <c r="I9">
-        <v>0.4619257426172655</v>
+        <v>0.4740661818880128</v>
       </c>
       <c r="J9">
-        <v>0.4619257426172655</v>
+        <v>0.4740661818880128</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>255.664805713016</v>
+        <v>256.4443053333333</v>
       </c>
       <c r="N9">
-        <v>255.664805713016</v>
+        <v>769.332916</v>
       </c>
       <c r="O9">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="P9">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="Q9">
-        <v>6067.472487699795</v>
+        <v>6723.617502327342</v>
       </c>
       <c r="R9">
-        <v>6067.472487699795</v>
+        <v>60512.55752094607</v>
       </c>
       <c r="S9">
-        <v>0.3966465436383519</v>
+        <v>0.3968307583537036</v>
       </c>
       <c r="T9">
-        <v>0.3966465436383519</v>
+        <v>0.3968307583537036</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>23.7321381438419</v>
+        <v>26.21862666666667</v>
       </c>
       <c r="H10">
-        <v>23.7321381438419</v>
+        <v>78.65588</v>
       </c>
       <c r="I10">
-        <v>0.4619257426172655</v>
+        <v>0.4740661818880128</v>
       </c>
       <c r="J10">
-        <v>0.4619257426172655</v>
+        <v>0.4740661818880128</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.0970775725202</v>
+        <v>32.74538866666666</v>
       </c>
       <c r="N10">
-        <v>32.0970775725202</v>
+        <v>98.236166</v>
       </c>
       <c r="O10">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="P10">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="Q10">
-        <v>761.732278964659</v>
+        <v>858.539120506231</v>
       </c>
       <c r="R10">
-        <v>761.732278964659</v>
+        <v>7726.85208455608</v>
       </c>
       <c r="S10">
-        <v>0.0497964310908048</v>
+        <v>0.05067134323879665</v>
       </c>
       <c r="T10">
-        <v>0.0497964310908048</v>
+        <v>0.05067134323879665</v>
       </c>
     </row>
   </sheetData>
